--- a/Sensitivity.xlsx
+++ b/Sensitivity.xlsx
@@ -505,70 +505,70 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.843035932110359</v>
+        <v>0.847184394443844</v>
       </c>
       <c r="D2" t="n">
-        <v>0.834894761480948</v>
+        <v>0.839564806231648</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.00312106560721066</v>
+        <v>-0.00514018059940181</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0220310489683105</v>
+        <v>0.0258755520547555</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0146678142626781</v>
+        <v>0.00486996577269966</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0736318736323187</v>
+        <v>-0.0783042496710425</v>
       </c>
       <c r="I2" t="n">
-        <v>0.023697495320975</v>
+        <v>0.0126960366429604</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00683202797632028</v>
+        <v>0.0111060586590606</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.00338764790187648</v>
+        <v>-0.00688477546484775</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00139654401796544</v>
+        <v>0.0077953401059534</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.0421465750454657</v>
+        <v>-0.0443438303274383</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0866913637349136</v>
+        <v>-0.0720739147807391</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.268546451373465</v>
+        <v>-0.262767385043674</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.0795472774714728</v>
+        <v>-0.0737179839891798</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.00407971158479712</v>
+        <v>-0.00709901513899015</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0177552713735527</v>
+        <v>0.0131929651439297</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0723476680354767</v>
+        <v>0.0742768058867681</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0911128367631284</v>
+        <v>0.0999681393036814</v>
       </c>
       <c r="U2" t="n">
-        <v>0.168182615053826</v>
+        <v>0.169018560646186</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0880417916564179</v>
+        <v>0.0990064620420646</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.0099090196470902</v>
+        <v>-0.00840718282807183</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.0217681326136813</v>
+        <v>0.00360788600407886</v>
       </c>
     </row>
     <row r="3">
@@ -576,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.843035932110359</v>
+        <v>0.847184394443844</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>0.00442242166422422</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00252575793725758</v>
+        <v>0.002590399945904</v>
       </c>
       <c r="H3" t="n">
         <v>-0.0898821692268217</v>
@@ -606,7 +606,7 @@
         <v>0.00207712450477124</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.00020109699801097</v>
+        <v>0.0121436570174366</v>
       </c>
       <c r="M3" t="n">
         <v>-0.00283594166835942</v>
@@ -639,10 +639,10 @@
         <v>0.00276484848364848</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.0169486806614868</v>
+        <v>-0.0105944116539441</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.0046724798507248</v>
+        <v>0.0000488312764883128</v>
       </c>
     </row>
     <row r="4">
@@ -650,7 +650,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.834894761480948</v>
+        <v>0.839564806231648</v>
       </c>
       <c r="C4" t="n">
         <v>0.989939172407392</v>
@@ -665,7 +665,7 @@
         <v>0.00395899805158998</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00381932763819328</v>
+        <v>0.00157393626373936</v>
       </c>
       <c r="H4" t="n">
         <v>-0.00225234233852342</v>
@@ -680,7 +680,7 @@
         <v>0.0022427297984273</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0000748742287487423</v>
+        <v>0.0101607597296076</v>
       </c>
       <c r="M4" t="n">
         <v>-0.00329823172498232</v>
@@ -713,10 +713,10 @@
         <v>0.00315070425150704</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.0167238696832387</v>
+        <v>-0.00910318252303182</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.00399042221190422</v>
+        <v>-0.00124169821241698</v>
       </c>
     </row>
     <row r="5">
@@ -724,7 +724,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.00312106560721066</v>
+        <v>-0.00514018059940181</v>
       </c>
       <c r="C5" t="n">
         <v>0.00132024144120241</v>
@@ -739,7 +739,7 @@
         <v>0.00377375132573751</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00135569727755697</v>
+        <v>0.00388367323483673</v>
       </c>
       <c r="H5" t="n">
         <v>-0.0132890941448909</v>
@@ -754,7 +754,7 @@
         <v>0.00323165579631656</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0139322238793222</v>
+        <v>0.0234139277581393</v>
       </c>
       <c r="M5" t="n">
         <v>0.0185860481578605</v>
@@ -787,10 +787,10 @@
         <v>-0.0110025326180253</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.0265444622294446</v>
+        <v>-0.00215261556952616</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.010379795671798</v>
+        <v>-0.00521655794816558</v>
       </c>
     </row>
     <row r="6">
@@ -798,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0220310489683105</v>
+        <v>0.0258755520547555</v>
       </c>
       <c r="C6" t="n">
         <v>0.00442242166422422</v>
@@ -813,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.00191612219516122</v>
+        <v>-0.00377678556176786</v>
       </c>
       <c r="H6" t="n">
         <v>-0.00512657442326574</v>
@@ -828,7 +828,7 @@
         <v>0.00463225593432256</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.00148176141881761</v>
+        <v>0.00613832580138326</v>
       </c>
       <c r="M6" t="n">
         <v>-0.0156230358242304</v>
@@ -861,10 +861,10 @@
         <v>0.00621556844615568</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.00489019807290198</v>
+        <v>-0.01359599777196</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.0160544223765442</v>
+        <v>0.0033237901892379</v>
       </c>
     </row>
     <row r="7">
@@ -872,73 +872,73 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0146678142626781</v>
+        <v>0.00486996577269966</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00252575793725758</v>
+        <v>0.002590399945904</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00381932763819328</v>
+        <v>0.00157393626373936</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00135569727755697</v>
+        <v>0.00388367323483673</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.00191612219516122</v>
+        <v>-0.00377678556176786</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00282458317624583</v>
+        <v>-0.0216726545647265</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0104963073449631</v>
+        <v>-0.000979455549794556</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00924299596442996</v>
+        <v>0.00717809654378096</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0187853887398539</v>
+        <v>-0.0125714824257148</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.010447304780473</v>
+        <v>-0.00588549149885492</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.00717915783579158</v>
+        <v>0.00169116538091165</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.000778362943783629</v>
+        <v>0.00325757052857571</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.0139706921717069</v>
+        <v>-0.0156229637522296</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0101183513331835</v>
+        <v>0.0134286849742868</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.000724462735244627</v>
+        <v>-0.00328267794882678</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.00100529689005297</v>
+        <v>-0.0126519809585198</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0180065867880659</v>
+        <v>-0.0135885329558853</v>
       </c>
       <c r="T7" t="n">
-        <v>0.00562755624827556</v>
+        <v>-0.0100651927966519</v>
       </c>
       <c r="U7" t="n">
-        <v>0.00482915604029156</v>
+        <v>-0.00612499510924995</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0026953798469538</v>
+        <v>-0.00874302647143027</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.00817873300578733</v>
+        <v>-0.00675565807955658</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.00172533262125333</v>
+        <v>-0.00378004168980042</v>
       </c>
     </row>
     <row r="8">
@@ -946,7 +946,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0736318736323187</v>
+        <v>-0.0783042496710425</v>
       </c>
       <c r="C8" t="n">
         <v>-0.0898821692268217</v>
@@ -961,7 +961,7 @@
         <v>-0.00512657442326574</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00282458317624583</v>
+        <v>-0.0216726545647265</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -976,7 +976,7 @@
         <v>-0.00234215091542151</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.00639399837993998</v>
+        <v>-0.0107924807159248</v>
       </c>
       <c r="M8" t="n">
         <v>-0.0187738714277387</v>
@@ -1009,10 +1009,10 @@
         <v>0.00779199466191995</v>
       </c>
       <c r="W8" t="n">
-        <v>0.00436740109967401</v>
+        <v>0.00414346160943462</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.00406079060860791</v>
+        <v>-0.00716102655561027</v>
       </c>
     </row>
     <row r="9">
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.023697495320975</v>
+        <v>0.0126960366429604</v>
       </c>
       <c r="C9" t="n">
         <v>0.00689193543291935</v>
@@ -1035,7 +1035,7 @@
         <v>-0.000712896163128962</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0104963073449631</v>
+        <v>-0.000979455549794556</v>
       </c>
       <c r="H9" t="n">
         <v>0.0144601312206013</v>
@@ -1050,7 +1050,7 @@
         <v>0.0118076341540763</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.000114975673149757</v>
+        <v>-0.00102347701023477</v>
       </c>
       <c r="M9" t="n">
         <v>0.00551366404313664</v>
@@ -1083,10 +1083,10 @@
         <v>-0.00639444877594449</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.00420876471008765</v>
+        <v>-0.0203153188431532</v>
       </c>
       <c r="X9" t="n">
-        <v>0.000962535117625351</v>
+        <v>0.0132916694889167</v>
       </c>
     </row>
     <row r="10">
@@ -1094,7 +1094,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.00683202797632028</v>
+        <v>0.0111060586590606</v>
       </c>
       <c r="C10" t="n">
         <v>-0.00399118613191186</v>
@@ -1109,7 +1109,7 @@
         <v>0.00997771179977712</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00924299596442996</v>
+        <v>0.00717809654378096</v>
       </c>
       <c r="H10" t="n">
         <v>-0.000103830589038306</v>
@@ -1124,7 +1124,7 @@
         <v>0.00827496559074965</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00205719070457191</v>
+        <v>-0.00315229419152294</v>
       </c>
       <c r="M10" t="n">
         <v>-0.0180038882640389</v>
@@ -1157,10 +1157,10 @@
         <v>0.0156548265125483</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0144690450366905</v>
+        <v>-0.017218698424187</v>
       </c>
       <c r="X10" t="n">
-        <v>0.00420885311408853</v>
+        <v>-0.0187535918835359</v>
       </c>
     </row>
     <row r="11">
@@ -1168,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.00338764790187648</v>
+        <v>-0.00688477546484775</v>
       </c>
       <c r="C11" t="n">
         <v>0.00207712450477124</v>
@@ -1183,7 +1183,7 @@
         <v>0.00463225593432256</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0187853887398539</v>
+        <v>-0.0125714824257148</v>
       </c>
       <c r="H11" t="n">
         <v>-0.00234215091542151</v>
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00119898724798987</v>
+        <v>-0.00222190287421903</v>
       </c>
       <c r="M11" t="n">
         <v>0.0120680188566802</v>
@@ -1231,10 +1231,10 @@
         <v>-0.0064239704562397</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.00168560390885604</v>
+        <v>0.00719981631599816</v>
       </c>
       <c r="X11" t="n">
-        <v>0.00111609722316097</v>
+        <v>-0.0033209098172091</v>
       </c>
     </row>
     <row r="12">
@@ -1242,73 +1242,73 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.00139654401796544</v>
+        <v>0.0077953401059534</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.00020109699801097</v>
+        <v>0.0121436570174366</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0000748742287487423</v>
+        <v>0.0101607597296076</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0139322238793222</v>
+        <v>0.0234139277581393</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.00148176141881761</v>
+        <v>0.00613832580138326</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.010447304780473</v>
+        <v>-0.00588549149885492</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.00639399837993998</v>
+        <v>-0.0107924807159248</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.000114975673149757</v>
+        <v>-0.00102347701023477</v>
       </c>
       <c r="J12" t="n">
-        <v>0.00205719070457191</v>
+        <v>-0.00315229419152294</v>
       </c>
       <c r="K12" t="n">
-        <v>0.00119898724798987</v>
+        <v>-0.00222190287421903</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0034660199026602</v>
+        <v>0.00573949301739493</v>
       </c>
       <c r="N12" t="n">
-        <v>0.00893146441731464</v>
+        <v>-0.00770800238908002</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.00239256325192563</v>
+        <v>-0.00194729451147294</v>
       </c>
       <c r="P12" t="n">
-        <v>0.00910693655506936</v>
+        <v>-0.00515402475954025</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.00472990426729904</v>
+        <v>0.0113784665457847</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.000820468244204682</v>
+        <v>-0.0282277803422778</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.0081593297495933</v>
+        <v>-0.00169463675294637</v>
       </c>
       <c r="T12" t="n">
-        <v>0.00387474266674743</v>
+        <v>-0.00459412767394128</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0117727443457274</v>
+        <v>0.00774915114549151</v>
       </c>
       <c r="V12" t="n">
-        <v>0.00430002581500026</v>
+        <v>-0.00548516104285161</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.0135325227753252</v>
+        <v>-0.0092354700203547</v>
       </c>
       <c r="X12" t="n">
-        <v>0.00041171897211719</v>
+        <v>0.00375016197750162</v>
       </c>
     </row>
     <row r="13">
@@ -1316,7 +1316,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.0421465750454657</v>
+        <v>-0.0443438303274383</v>
       </c>
       <c r="C13" t="n">
         <v>-0.00283594166835942</v>
@@ -1331,7 +1331,7 @@
         <v>-0.0156230358242304</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.00717915783579158</v>
+        <v>0.00169116538091165</v>
       </c>
       <c r="H13" t="n">
         <v>-0.0187738714277387</v>
@@ -1346,7 +1346,7 @@
         <v>0.0120680188566802</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0034660199026602</v>
+        <v>0.00573949301739493</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
@@ -1379,10 +1379,10 @@
         <v>0.0127866373398664</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.0233284648132846</v>
+        <v>-0.0081741205177412</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.021358795401588</v>
+        <v>0.00676163196761632</v>
       </c>
     </row>
     <row r="14">
@@ -1390,7 +1390,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.0866913637349136</v>
+        <v>-0.0720739147807391</v>
       </c>
       <c r="C14" t="n">
         <v>0.0265110164171102</v>
@@ -1405,7 +1405,7 @@
         <v>0.0069526802375268</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.000778362943783629</v>
+        <v>0.00325757052857571</v>
       </c>
       <c r="H14" t="n">
         <v>-0.00888294308882943</v>
@@ -1420,7 +1420,7 @@
         <v>-0.0111088571670886</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00893146441731464</v>
+        <v>-0.00770800238908002</v>
       </c>
       <c r="M14" t="n">
         <v>0.0103682342596823</v>
@@ -1453,10 +1453,10 @@
         <v>0.00985071144250711</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.00265441926254419</v>
+        <v>-0.000781989331819893</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.00403716386837164</v>
+        <v>-0.00413748449337484</v>
       </c>
     </row>
     <row r="15">
@@ -1464,7 +1464,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.268546451373465</v>
+        <v>-0.262767385043674</v>
       </c>
       <c r="C15" t="n">
         <v>-0.0100871673048717</v>
@@ -1479,7 +1479,7 @@
         <v>0.0114384911583849</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0139706921717069</v>
+        <v>-0.0156229637522296</v>
       </c>
       <c r="H15" t="n">
         <v>0.0107553064555531</v>
@@ -1494,7 +1494,7 @@
         <v>-0.00872702435127024</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.00239256325192563</v>
+        <v>-0.00194729451147294</v>
       </c>
       <c r="M15" t="n">
         <v>0.0187724196197242</v>
@@ -1527,10 +1527,10 @@
         <v>-0.0131397052193971</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.0108836771888368</v>
+        <v>-0.00897654400176544</v>
       </c>
       <c r="X15" t="n">
-        <v>0.0204028061640281</v>
+        <v>-0.00731058624110586</v>
       </c>
     </row>
     <row r="16">
@@ -1538,7 +1538,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.0795472774714728</v>
+        <v>-0.0737179839891798</v>
       </c>
       <c r="C16" t="n">
         <v>-0.0940250314602503</v>
@@ -1553,7 +1553,7 @@
         <v>-0.00333407544934075</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0101183513331835</v>
+        <v>0.0134286849742868</v>
       </c>
       <c r="H16" t="n">
         <v>-0.0100994497249945</v>
@@ -1568,7 +1568,7 @@
         <v>0.00247195586471956</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00910693655506936</v>
+        <v>-0.00515402475954025</v>
       </c>
       <c r="M16" t="n">
         <v>0.0130384877623849</v>
@@ -1601,10 +1601,10 @@
         <v>-0.00906902340669023</v>
       </c>
       <c r="W16" t="n">
-        <v>0.0107191054671911</v>
+        <v>0.00592827884328279</v>
       </c>
       <c r="X16" t="n">
-        <v>0.00852680230926802</v>
+        <v>0.000515218373152184</v>
       </c>
     </row>
     <row r="17">
@@ -1612,7 +1612,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.00407971158479712</v>
+        <v>-0.00709901513899015</v>
       </c>
       <c r="C17" t="n">
         <v>-0.00503482247034823</v>
@@ -1627,7 +1627,7 @@
         <v>-0.00865207729452077</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.000724462735244627</v>
+        <v>-0.00328267794882678</v>
       </c>
       <c r="H17" t="n">
         <v>0.0132542618765426</v>
@@ -1642,7 +1642,7 @@
         <v>-0.0188829069928291</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.00472990426729904</v>
+        <v>0.0113784665457847</v>
       </c>
       <c r="M17" t="n">
         <v>0.00918054679980547</v>
@@ -1675,10 +1675,10 @@
         <v>0.00422458897824589</v>
       </c>
       <c r="W17" t="n">
-        <v>0.000299179934991799</v>
+        <v>0.00359069684390697</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.00493373475733735</v>
+        <v>-0.00271960375519604</v>
       </c>
     </row>
     <row r="18">
@@ -1686,7 +1686,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0177552713735527</v>
+        <v>0.0131929651439297</v>
       </c>
       <c r="C18" t="n">
         <v>-0.00774021259740213</v>
@@ -1701,7 +1701,7 @@
         <v>0.00726404953264049</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.00100529689005297</v>
+        <v>-0.0126519809585198</v>
       </c>
       <c r="H18" t="n">
         <v>-0.00140068383800684</v>
@@ -1716,7 +1716,7 @@
         <v>0.00332339313323393</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.000820468244204682</v>
+        <v>-0.0282277803422778</v>
       </c>
       <c r="M18" t="n">
         <v>-0.00680111854401119</v>
@@ -1749,10 +1749,10 @@
         <v>-0.00791178623511786</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.00844682733646827</v>
+        <v>0.00336217499762175</v>
       </c>
       <c r="X18" t="n">
-        <v>0.00240894646808946</v>
+        <v>0.0070672302946723</v>
       </c>
     </row>
     <row r="19">
@@ -1760,7 +1760,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0723476680354767</v>
+        <v>0.0742768058867681</v>
       </c>
       <c r="C19" t="n">
         <v>-0.00441511900415119</v>
@@ -1775,7 +1775,7 @@
         <v>0.0145624329376243</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0180065867880659</v>
+        <v>-0.0135885329558853</v>
       </c>
       <c r="H19" t="n">
         <v>0.0173062186970622</v>
@@ -1790,7 +1790,7 @@
         <v>-0.0094365701983657</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0081593297495933</v>
+        <v>-0.00169463675294637</v>
       </c>
       <c r="M19" t="n">
         <v>0.000155432509554325</v>
@@ -1823,10 +1823,10 @@
         <v>-0.0192349416963494</v>
       </c>
       <c r="W19" t="n">
-        <v>0.00509184743091847</v>
+        <v>0.000847285448472854</v>
       </c>
       <c r="X19" t="n">
-        <v>0.00376274697762747</v>
+        <v>-0.00160386479203865</v>
       </c>
     </row>
     <row r="20">
@@ -1834,7 +1834,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0911128367631284</v>
+        <v>0.0999681393036814</v>
       </c>
       <c r="C20" t="n">
         <v>0.00386877942268779</v>
@@ -1849,7 +1849,7 @@
         <v>0.00580477249004773</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00562755624827556</v>
+        <v>-0.0100651927966519</v>
       </c>
       <c r="H20" t="n">
         <v>0.0106490700944907</v>
@@ -1864,7 +1864,7 @@
         <v>-0.00383067391430674</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00387474266674743</v>
+        <v>-0.00459412767394128</v>
       </c>
       <c r="M20" t="n">
         <v>0.0143429626674296</v>
@@ -1897,10 +1897,10 @@
         <v>0.979642923868429</v>
       </c>
       <c r="W20" t="n">
-        <v>0.00115311202753112</v>
+        <v>0.00978259467782595</v>
       </c>
       <c r="X20" t="n">
-        <v>0.00691223921712239</v>
+        <v>-0.0023826402358264</v>
       </c>
     </row>
     <row r="21">
@@ -1908,7 +1908,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.168182615053826</v>
+        <v>0.169018560646186</v>
       </c>
       <c r="C21" t="n">
         <v>0.00773717866137179</v>
@@ -1923,7 +1923,7 @@
         <v>0.00325437741254377</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00482915604029156</v>
+        <v>-0.00612499510924995</v>
       </c>
       <c r="H21" t="n">
         <v>-0.00646246456062465</v>
@@ -1938,7 +1938,7 @@
         <v>-0.00182737885827379</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0117727443457274</v>
+        <v>0.00774915114549151</v>
       </c>
       <c r="M21" t="n">
         <v>0.0206476382904764</v>
@@ -1971,10 +1971,10 @@
         <v>-0.00882576461225765</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.0180508914245089</v>
+        <v>0.0127813097358131</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.0142964782189648</v>
+        <v>0.0200196329241963</v>
       </c>
     </row>
     <row r="22">
@@ -1982,7 +1982,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0880417916564179</v>
+        <v>0.0990064620420646</v>
       </c>
       <c r="C22" t="n">
         <v>0.00276484848364848</v>
@@ -1997,7 +1997,7 @@
         <v>0.00621556844615568</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0026953798469538</v>
+        <v>-0.00874302647143027</v>
       </c>
       <c r="H22" t="n">
         <v>0.00779199466191995</v>
@@ -2012,7 +2012,7 @@
         <v>-0.0064239704562397</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00430002581500026</v>
+        <v>-0.00548516104285161</v>
       </c>
       <c r="M22" t="n">
         <v>0.0127866373398664</v>
@@ -2045,10 +2045,10 @@
         <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>0.00104161360641614</v>
+        <v>0.0143948456759485</v>
       </c>
       <c r="X22" t="n">
-        <v>0.00678720270787203</v>
+        <v>-0.00419968859399689</v>
       </c>
     </row>
     <row r="23">
@@ -2056,73 +2056,73 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.0099090196470902</v>
+        <v>-0.00840718282807183</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.0169486806614868</v>
+        <v>-0.0105944116539441</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0167238696832387</v>
+        <v>-0.00910318252303182</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.0265444622294446</v>
+        <v>-0.00215261556952616</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.00489019807290198</v>
+        <v>-0.01359599777196</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.00817873300578733</v>
+        <v>-0.00675565807955658</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00436740109967401</v>
+        <v>0.00414346160943462</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.00420876471008765</v>
+        <v>-0.0203153188431532</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0144690450366905</v>
+        <v>-0.017218698424187</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.00168560390885604</v>
+        <v>0.00719981631599816</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0135325227753252</v>
+        <v>-0.0092354700203547</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.0233284648132846</v>
+        <v>-0.0081741205177412</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.00265441926254419</v>
+        <v>-0.000781989331819893</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.0108836771888368</v>
+        <v>-0.00897654400176544</v>
       </c>
       <c r="P23" t="n">
-        <v>0.0107191054671911</v>
+        <v>0.00592827884328279</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.000299179934991799</v>
+        <v>0.00359069684390697</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.00844682733646827</v>
+        <v>0.00336217499762175</v>
       </c>
       <c r="S23" t="n">
-        <v>0.00509184743091847</v>
+        <v>0.000847285448472854</v>
       </c>
       <c r="T23" t="n">
-        <v>0.00115311202753112</v>
+        <v>0.00978259467782595</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.0180508914245089</v>
+        <v>0.0127813097358131</v>
       </c>
       <c r="V23" t="n">
-        <v>0.00104161360641614</v>
+        <v>0.0143948456759485</v>
       </c>
       <c r="W23" t="n">
         <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.00142413908624139</v>
+        <v>0.0199111179311112</v>
       </c>
     </row>
     <row r="24">
@@ -2130,70 +2130,70 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.0217681326136813</v>
+        <v>0.00360788600407886</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0046724798507248</v>
+        <v>0.0000488312764883128</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.00399042221190422</v>
+        <v>-0.00124169821241698</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.010379795671798</v>
+        <v>-0.00521655794816558</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0160544223765442</v>
+        <v>0.0033237901892379</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.00172533262125333</v>
+        <v>-0.00378004168980042</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.00406079060860791</v>
+        <v>-0.00716102655561027</v>
       </c>
       <c r="I24" t="n">
-        <v>0.000962535117625351</v>
+        <v>0.0132916694889167</v>
       </c>
       <c r="J24" t="n">
-        <v>0.00420885311408853</v>
+        <v>-0.0187535918835359</v>
       </c>
       <c r="K24" t="n">
-        <v>0.00111609722316097</v>
+        <v>-0.0033209098172091</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00041171897211719</v>
+        <v>0.00375016197750162</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.021358795401588</v>
+        <v>0.00676163196761632</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.00403716386837164</v>
+        <v>-0.00413748449337484</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0204028061640281</v>
+        <v>-0.00731058624110586</v>
       </c>
       <c r="P24" t="n">
-        <v>0.00852680230926802</v>
+        <v>0.000515218373152184</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.00493373475733735</v>
+        <v>-0.00271960375519604</v>
       </c>
       <c r="R24" t="n">
-        <v>0.00240894646808946</v>
+        <v>0.0070672302946723</v>
       </c>
       <c r="S24" t="n">
-        <v>0.00376274697762747</v>
+        <v>-0.00160386479203865</v>
       </c>
       <c r="T24" t="n">
-        <v>0.00691223921712239</v>
+        <v>-0.0023826402358264</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.0142964782189648</v>
+        <v>0.0200196329241963</v>
       </c>
       <c r="V24" t="n">
-        <v>0.00678720270787203</v>
+        <v>-0.00419968859399689</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.00142413908624139</v>
+        <v>0.0199111179311112</v>
       </c>
       <c r="X24" t="n">
         <v>1</v>
@@ -2295,70 +2295,70 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.843035932110359</v>
+        <v>0.847184394443844</v>
       </c>
       <c r="D2" t="n">
-        <v>0.834894761480948</v>
+        <v>0.839564806231648</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.00312106560721066</v>
+        <v>-0.00514018059940181</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0220310489683105</v>
+        <v>0.0258755520547555</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.00441412770814128</v>
+        <v>-0.0038817800548178</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0736318736323187</v>
+        <v>-0.0783042496710425</v>
       </c>
       <c r="I2" t="n">
-        <v>0.023697495320975</v>
+        <v>0.0126960366429604</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00683202797632028</v>
+        <v>0.0111060586590606</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.00338764790187648</v>
+        <v>-0.00688477546484775</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0100066317160663</v>
+        <v>-0.000827644748276448</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.0421465750454657</v>
+        <v>-0.0443438303274383</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0866913637349136</v>
+        <v>-0.0720739147807391</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.268546451373465</v>
+        <v>-0.262767385043674</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.0795472774714728</v>
+        <v>-0.0737179839891798</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.00407971158479712</v>
+        <v>-0.00709901513899015</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0177552713735527</v>
+        <v>0.0131929651439297</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0723476680354767</v>
+        <v>0.0742768058867681</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0911128367631284</v>
+        <v>0.0999681393036814</v>
       </c>
       <c r="U2" t="n">
-        <v>0.168182615053826</v>
+        <v>0.169018560646186</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0880417916564179</v>
+        <v>0.0990064620420646</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0247683297796833</v>
+        <v>0.00655017653952141</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0000984614649846146</v>
+        <v>0.00851653464116535</v>
       </c>
     </row>
     <row r="3">
@@ -2366,7 +2366,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.843035932110359</v>
+        <v>0.847184394443844</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2381,7 +2381,7 @@
         <v>0.00442242166422422</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.00683400320034003</v>
+        <v>-0.00630277658702777</v>
       </c>
       <c r="H3" t="n">
         <v>-0.0898821692268217</v>
@@ -2396,7 +2396,7 @@
         <v>0.00207712450477124</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.00208111192481112</v>
+        <v>-0.00759718586797186</v>
       </c>
       <c r="M3" t="n">
         <v>-0.00283594166835942</v>
@@ -2429,10 +2429,10 @@
         <v>0.00276484848364848</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0249077119290771</v>
+        <v>0.00446884440870185</v>
       </c>
       <c r="X3" t="n">
-        <v>0.00463077769030778</v>
+        <v>0.001393400449934</v>
       </c>
     </row>
     <row r="4">
@@ -2440,7 +2440,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.834894761480948</v>
+        <v>0.839564806231648</v>
       </c>
       <c r="C4" t="n">
         <v>0.989939172407392</v>
@@ -2455,7 +2455,7 @@
         <v>0.00395899805158998</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.00534218724542187</v>
+        <v>-0.00851149813311498</v>
       </c>
       <c r="H4" t="n">
         <v>-0.00225234233852342</v>
@@ -2470,7 +2470,7 @@
         <v>0.0022427297984273</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.000951055749510557</v>
+        <v>-0.00739396414993964</v>
       </c>
       <c r="M4" t="n">
         <v>-0.00329823172498232</v>
@@ -2503,10 +2503,10 @@
         <v>0.00315070425150704</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0234347290743473</v>
+        <v>0.0065977005659968</v>
       </c>
       <c r="X4" t="n">
-        <v>0.00309415779094158</v>
+        <v>0.00216324286563243</v>
       </c>
     </row>
     <row r="5">
@@ -2514,7 +2514,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.00312106560721066</v>
+        <v>-0.00514018059940181</v>
       </c>
       <c r="C5" t="n">
         <v>0.00132024144120241</v>
@@ -2529,7 +2529,7 @@
         <v>0.00377375132573751</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.024856196360562</v>
+        <v>0.00427063379470634</v>
       </c>
       <c r="H5" t="n">
         <v>-0.0132890941448909</v>
@@ -2544,7 +2544,7 @@
         <v>0.00323165579631656</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0147837833438378</v>
+        <v>0.0197797842297978</v>
       </c>
       <c r="M5" t="n">
         <v>0.0185860481578605</v>
@@ -2577,10 +2577,10 @@
         <v>-0.0110025326180253</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.000869590652695906</v>
+        <v>0.0131349663233891</v>
       </c>
       <c r="X5" t="n">
-        <v>0.00251957053319571</v>
+        <v>0.00301217145012171</v>
       </c>
     </row>
     <row r="6">
@@ -2588,7 +2588,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0220310489683105</v>
+        <v>0.0258755520547555</v>
       </c>
       <c r="C6" t="n">
         <v>0.00442242166422422</v>
@@ -2603,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.00379367776993678</v>
+        <v>0.00403388168833882</v>
       </c>
       <c r="H6" t="n">
         <v>-0.00512657442326574</v>
@@ -2618,7 +2618,7 @@
         <v>0.00463225593432256</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00396327835563278</v>
+        <v>-0.00394835726748357</v>
       </c>
       <c r="M6" t="n">
         <v>-0.0156230358242304</v>
@@ -2651,10 +2651,10 @@
         <v>0.00621556844615568</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0093488904214889</v>
+        <v>0.00389519804096367</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.00444375652443757</v>
+        <v>0.00508262553882625</v>
       </c>
     </row>
     <row r="7">
@@ -2662,73 +2662,73 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.00441412770814128</v>
+        <v>-0.0038817800548178</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.00683400320034003</v>
+        <v>-0.00630277658702777</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.00534218724542187</v>
+        <v>-0.00851149813311498</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.024856196360562</v>
+        <v>0.00427063379470634</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.00379367776993678</v>
+        <v>0.00403388168833882</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.000193289473932895</v>
+        <v>0.0102161077501611</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.00804047160840471</v>
+        <v>0.00588602615886026</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.0230025628220256</v>
+        <v>-0.000093779604937796</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.00605398798853988</v>
+        <v>-0.00721773792017738</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00750541049105411</v>
+        <v>-0.00014141202141412</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.018694096770941</v>
+        <v>-0.00423677707836777</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.0049489494974895</v>
+        <v>-0.00160443946004439</v>
       </c>
       <c r="O7" t="n">
-        <v>0.000642425382424254</v>
+        <v>-0.00816333848163339</v>
       </c>
       <c r="P7" t="n">
-        <v>0.012161497441615</v>
+        <v>-0.0293480412054804</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.00937192617371926</v>
+        <v>0.0140685390086854</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0174157157821572</v>
+        <v>0.00188949191489492</v>
       </c>
       <c r="S7" t="n">
-        <v>0.021628604340286</v>
+        <v>0.00840042351600423</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.0177683597376836</v>
+        <v>0.00119509420795094</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0190477385744774</v>
+        <v>-0.00869349360293494</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.016530104289301</v>
+        <v>0.000105136825051368</v>
       </c>
       <c r="W7" t="n">
-        <v>0.00758787912387879</v>
+        <v>-0.00782306132425408</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.00448600425286004</v>
+        <v>0.00436545723165457</v>
       </c>
     </row>
     <row r="8">
@@ -2736,7 +2736,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0736318736323187</v>
+        <v>-0.0783042496710425</v>
       </c>
       <c r="C8" t="n">
         <v>-0.0898821692268217</v>
@@ -2751,7 +2751,7 @@
         <v>-0.00512657442326574</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.000193289473932895</v>
+        <v>0.0102161077501611</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -2766,7 +2766,7 @@
         <v>-0.00234215091542151</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00687300309273003</v>
+        <v>0.011178402471784</v>
       </c>
       <c r="M8" t="n">
         <v>-0.0187738714277387</v>
@@ -2799,10 +2799,10 @@
         <v>0.00779199466191995</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.011877801898778</v>
+        <v>0.0047785966678003</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.0136680560086806</v>
+        <v>-0.00226286114262861</v>
       </c>
     </row>
     <row r="9">
@@ -2810,7 +2810,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.023697495320975</v>
+        <v>0.0126960366429604</v>
       </c>
       <c r="C9" t="n">
         <v>0.00689193543291935</v>
@@ -2825,7 +2825,7 @@
         <v>-0.000712896163128962</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.00804047160840471</v>
+        <v>0.00588602615886026</v>
       </c>
       <c r="H9" t="n">
         <v>0.0144601312206013</v>
@@ -2840,7 +2840,7 @@
         <v>0.0118076341540763</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00881074703210747</v>
+        <v>-0.0045735799657358</v>
       </c>
       <c r="M9" t="n">
         <v>0.00551366404313664</v>
@@ -2873,10 +2873,10 @@
         <v>-0.00639444877594449</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.00938980486589805</v>
+        <v>0.00307853581279459</v>
       </c>
       <c r="X9" t="n">
-        <v>0.00134364187343642</v>
+        <v>-0.00585688069056881</v>
       </c>
     </row>
     <row r="10">
@@ -2884,7 +2884,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.00683202797632028</v>
+        <v>0.0111060586590606</v>
       </c>
       <c r="C10" t="n">
         <v>-0.00399118613191186</v>
@@ -2899,7 +2899,7 @@
         <v>0.00997771179977712</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0230025628220256</v>
+        <v>-0.000093779604937796</v>
       </c>
       <c r="H10" t="n">
         <v>-0.000103830589038306</v>
@@ -2914,7 +2914,7 @@
         <v>0.00827496559074965</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0059718199077182</v>
+        <v>0.0100983915529839</v>
       </c>
       <c r="M10" t="n">
         <v>-0.0180038882640389</v>
@@ -2947,10 +2947,10 @@
         <v>0.0156548265125483</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.00636610809966108</v>
+        <v>0.00745767390259911</v>
       </c>
       <c r="X10" t="n">
-        <v>0.00483748884037489</v>
+        <v>0.021845104382451</v>
       </c>
     </row>
     <row r="11">
@@ -2958,7 +2958,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.00338764790187648</v>
+        <v>-0.00688477546484775</v>
       </c>
       <c r="C11" t="n">
         <v>0.00207712450477124</v>
@@ -2973,7 +2973,7 @@
         <v>0.00463225593432256</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.00605398798853988</v>
+        <v>-0.00721773792017738</v>
       </c>
       <c r="H11" t="n">
         <v>-0.00234215091542151</v>
@@ -2988,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0162131751181318</v>
+        <v>-0.0116839707688397</v>
       </c>
       <c r="M11" t="n">
         <v>0.0120680188566802</v>
@@ -3021,10 +3021,10 @@
         <v>-0.0064239704562397</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0130353315583533</v>
+        <v>0.00604702701648841</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.00123470362834704</v>
+        <v>-0.00166763938067639</v>
       </c>
     </row>
     <row r="12">
@@ -3032,73 +3032,73 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0100066317160663</v>
+        <v>-0.000827644748276448</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.00208111192481112</v>
+        <v>-0.00759718586797186</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.000951055749510557</v>
+        <v>-0.00739396414993964</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0147837833438378</v>
+        <v>0.0197797842297978</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00396327835563278</v>
+        <v>-0.00394835726748357</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00750541049105411</v>
+        <v>-0.00014141202141412</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00687300309273003</v>
+        <v>0.011178402471784</v>
       </c>
       <c r="I12" t="n">
-        <v>0.00881074703210747</v>
+        <v>-0.0045735799657358</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0059718199077182</v>
+        <v>0.0100983915529839</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0162131751181318</v>
+        <v>-0.0116839707688397</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0139921286239213</v>
+        <v>0.00283847442438474</v>
       </c>
       <c r="N12" t="n">
-        <v>0.00221662513016625</v>
+        <v>-0.00607804315278043</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0101119200411192</v>
+        <v>0.00302177869821779</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0050061299060613</v>
+        <v>-0.0104338126043381</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0236377778963778</v>
+        <v>-0.00722834301628343</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.0110749239027492</v>
+        <v>0.01081800433218</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.0061424104574241</v>
+        <v>0.00343191056231911</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.0178038571780386</v>
+        <v>-0.0149280284452803</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.0141730167577302</v>
+        <v>0.00717177742771777</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.0201929786739298</v>
+        <v>-0.0135126864631269</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.0197992072499921</v>
+        <v>0.00641517376617098</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0184646229526462</v>
+        <v>0.00995518493155185</v>
       </c>
     </row>
     <row r="13">
@@ -3106,7 +3106,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.0421465750454657</v>
+        <v>-0.0443438303274383</v>
       </c>
       <c r="C13" t="n">
         <v>-0.00283594166835942</v>
@@ -3121,7 +3121,7 @@
         <v>-0.0156230358242304</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.018694096770941</v>
+        <v>-0.00423677707836777</v>
       </c>
       <c r="H13" t="n">
         <v>-0.0187738714277387</v>
@@ -3136,7 +3136,7 @@
         <v>0.0120680188566802</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0139921286239213</v>
+        <v>0.00283847442438474</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
@@ -3169,10 +3169,10 @@
         <v>0.0127866373398664</v>
       </c>
       <c r="W13" t="n">
-        <v>0.013362903373629</v>
+        <v>-0.00369178957892897</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.00930737387707374</v>
+        <v>0.00106698754666988</v>
       </c>
     </row>
     <row r="14">
@@ -3180,7 +3180,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.0866913637349136</v>
+        <v>-0.0720739147807391</v>
       </c>
       <c r="C14" t="n">
         <v>0.0265110164171102</v>
@@ -3195,7 +3195,7 @@
         <v>0.0069526802375268</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0049489494974895</v>
+        <v>-0.00160443946004439</v>
       </c>
       <c r="H14" t="n">
         <v>-0.00888294308882943</v>
@@ -3210,7 +3210,7 @@
         <v>-0.0111088571670886</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00221662513016625</v>
+        <v>-0.00607804315278043</v>
       </c>
       <c r="M14" t="n">
         <v>0.0103682342596823</v>
@@ -3243,10 +3243,10 @@
         <v>0.00985071144250711</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.0157792569857926</v>
+        <v>0.0152499084865448</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.00681852328418523</v>
+        <v>-0.00906407911864079</v>
       </c>
     </row>
     <row r="15">
@@ -3254,7 +3254,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.268546451373465</v>
+        <v>-0.262767385043674</v>
       </c>
       <c r="C15" t="n">
         <v>-0.0100871673048717</v>
@@ -3269,7 +3269,7 @@
         <v>0.0114384911583849</v>
       </c>
       <c r="G15" t="n">
-        <v>0.000642425382424254</v>
+        <v>-0.00816333848163339</v>
       </c>
       <c r="H15" t="n">
         <v>0.0107553064555531</v>
@@ -3284,7 +3284,7 @@
         <v>-0.00872702435127024</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0101119200411192</v>
+        <v>0.00302177869821779</v>
       </c>
       <c r="M15" t="n">
         <v>0.0187724196197242</v>
@@ -3317,10 +3317,10 @@
         <v>-0.0131397052193971</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.00519151646791516</v>
+        <v>0.0125958051659958</v>
       </c>
       <c r="X15" t="n">
-        <v>0.00319601233996012</v>
+        <v>-0.00677622105176221</v>
       </c>
     </row>
     <row r="16">
@@ -3328,7 +3328,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.0795472774714728</v>
+        <v>-0.0737179839891798</v>
       </c>
       <c r="C16" t="n">
         <v>-0.0940250314602503</v>
@@ -3343,7 +3343,7 @@
         <v>-0.00333407544934075</v>
       </c>
       <c r="G16" t="n">
-        <v>0.012161497441615</v>
+        <v>-0.0293480412054804</v>
       </c>
       <c r="H16" t="n">
         <v>-0.0100994497249945</v>
@@ -3358,7 +3358,7 @@
         <v>0.00247195586471956</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0050061299060613</v>
+        <v>-0.0104338126043381</v>
       </c>
       <c r="M16" t="n">
         <v>0.0130384877623849</v>
@@ -3391,10 +3391,10 @@
         <v>-0.00906902340669023</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.00372342159723422</v>
+        <v>0.0169875487099264</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.0048960097929601</v>
+        <v>0.00383897630638976</v>
       </c>
     </row>
     <row r="17">
@@ -3402,7 +3402,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.00407971158479712</v>
+        <v>-0.00709901513899015</v>
       </c>
       <c r="C17" t="n">
         <v>-0.00503482247034823</v>
@@ -3417,7 +3417,7 @@
         <v>-0.00865207729452077</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00937192617371926</v>
+        <v>0.0140685390086854</v>
       </c>
       <c r="H17" t="n">
         <v>0.0132542618765426</v>
@@ -3432,7 +3432,7 @@
         <v>-0.0188829069928291</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0236377778963778</v>
+        <v>-0.00722834301628343</v>
       </c>
       <c r="M17" t="n">
         <v>0.00918054679980547</v>
@@ -3465,10 +3465,10 @@
         <v>0.00422458897824589</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.00614553444145534</v>
+        <v>0.00288772142888588</v>
       </c>
       <c r="X17" t="n">
-        <v>0.00540429371404294</v>
+        <v>-0.0123271188392712</v>
       </c>
     </row>
     <row r="18">
@@ -3476,7 +3476,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0177552713735527</v>
+        <v>0.0131929651439297</v>
       </c>
       <c r="C18" t="n">
         <v>-0.00774021259740213</v>
@@ -3491,7 +3491,7 @@
         <v>0.00726404953264049</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0174157157821572</v>
+        <v>0.00188949191489492</v>
       </c>
       <c r="H18" t="n">
         <v>-0.00140068383800684</v>
@@ -3506,7 +3506,7 @@
         <v>0.00332339313323393</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0110749239027492</v>
+        <v>0.01081800433218</v>
       </c>
       <c r="M18" t="n">
         <v>-0.00680111854401119</v>
@@ -3539,10 +3539,10 @@
         <v>-0.00791178623511786</v>
       </c>
       <c r="W18" t="n">
-        <v>0.00440449071204491</v>
+        <v>0.0106563322125953</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.00115483821554838</v>
+        <v>-0.00524348831243488</v>
       </c>
     </row>
     <row r="19">
@@ -3550,7 +3550,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0723476680354767</v>
+        <v>0.0742768058867681</v>
       </c>
       <c r="C19" t="n">
         <v>-0.00441511900415119</v>
@@ -3565,7 +3565,7 @@
         <v>0.0145624329376243</v>
       </c>
       <c r="G19" t="n">
-        <v>0.021628604340286</v>
+        <v>0.00840042351600423</v>
       </c>
       <c r="H19" t="n">
         <v>0.0173062186970622</v>
@@ -3580,7 +3580,7 @@
         <v>-0.0094365701983657</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0061424104574241</v>
+        <v>0.00343191056231911</v>
       </c>
       <c r="M19" t="n">
         <v>0.000155432509554325</v>
@@ -3613,10 +3613,10 @@
         <v>-0.0192349416963494</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.00377681493776815</v>
+        <v>-0.00683690230438953</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.00213700403737004</v>
+        <v>-0.00387177126271771</v>
       </c>
     </row>
     <row r="20">
@@ -3624,7 +3624,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0911128367631284</v>
+        <v>0.0999681393036814</v>
       </c>
       <c r="C20" t="n">
         <v>0.00386877942268779</v>
@@ -3639,7 +3639,7 @@
         <v>0.00580477249004773</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0177683597376836</v>
+        <v>0.00119509420795094</v>
       </c>
       <c r="H20" t="n">
         <v>0.0106490700944907</v>
@@ -3654,7 +3654,7 @@
         <v>-0.00383067391430674</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0178038571780386</v>
+        <v>-0.0149280284452803</v>
       </c>
       <c r="M20" t="n">
         <v>0.0143429626674296</v>
@@ -3687,10 +3687,10 @@
         <v>0.979642923868429</v>
       </c>
       <c r="W20" t="n">
-        <v>0.0027555504635555</v>
+        <v>-0.00900020593202906</v>
       </c>
       <c r="X20" t="n">
-        <v>0.0063368504433685</v>
+        <v>0.0234827308988273</v>
       </c>
     </row>
     <row r="21">
@@ -3698,7 +3698,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.168182615053826</v>
+        <v>0.169018560646186</v>
       </c>
       <c r="C21" t="n">
         <v>0.00773717866137179</v>
@@ -3713,7 +3713,7 @@
         <v>0.00325437741254377</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0190477385744774</v>
+        <v>-0.00869349360293494</v>
       </c>
       <c r="H21" t="n">
         <v>-0.00646246456062465</v>
@@ -3728,7 +3728,7 @@
         <v>-0.00182737885827379</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0141730167577302</v>
+        <v>0.00717177742771777</v>
       </c>
       <c r="M21" t="n">
         <v>0.0206476382904764</v>
@@ -3761,10 +3761,10 @@
         <v>-0.00882576461225765</v>
       </c>
       <c r="W21" t="n">
-        <v>0.00459563276195633</v>
+        <v>0.00660323665805218</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.00575323690553237</v>
+        <v>0.0046224100302241</v>
       </c>
     </row>
     <row r="22">
@@ -3772,7 +3772,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0880417916564179</v>
+        <v>0.0990064620420646</v>
       </c>
       <c r="C22" t="n">
         <v>0.00276484848364848</v>
@@ -3787,7 +3787,7 @@
         <v>0.00621556844615568</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.016530104289301</v>
+        <v>0.000105136825051368</v>
       </c>
       <c r="H22" t="n">
         <v>0.00779199466191995</v>
@@ -3802,7 +3802,7 @@
         <v>-0.0064239704562397</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0201929786739298</v>
+        <v>-0.0135126864631269</v>
       </c>
       <c r="M22" t="n">
         <v>0.0127866373398664</v>
@@ -3835,10 +3835,10 @@
         <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>0.00431273860312739</v>
+        <v>-0.0100503771825339</v>
       </c>
       <c r="X22" t="n">
-        <v>0.00584283925042839</v>
+        <v>0.0236300477003005</v>
       </c>
     </row>
     <row r="23">
@@ -3846,73 +3846,73 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0247683297796833</v>
+        <v>0.00655017653952141</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0249077119290771</v>
+        <v>0.00446884440870185</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0234347290743473</v>
+        <v>0.0065977005659968</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.000869590652695906</v>
+        <v>0.0131349663233891</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0093488904214889</v>
+        <v>0.00389519804096367</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00758787912387879</v>
+        <v>-0.00782306132425408</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.011877801898778</v>
+        <v>0.0047785966678003</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.00938980486589805</v>
+        <v>0.00307853581279459</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.00636610809966108</v>
+        <v>0.00745767390259911</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0130353315583533</v>
+        <v>0.00604702701648841</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0197992072499921</v>
+        <v>0.00641517376617098</v>
       </c>
       <c r="M23" t="n">
-        <v>0.013362903373629</v>
+        <v>-0.00369178957892897</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.0157792569857926</v>
+        <v>0.0152499084865448</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.00519151646791516</v>
+        <v>0.0125958051659958</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.00372342159723422</v>
+        <v>0.0169875487099264</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.00614553444145534</v>
+        <v>0.00288772142888588</v>
       </c>
       <c r="R23" t="n">
-        <v>0.00440449071204491</v>
+        <v>0.0106563322125953</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.00377681493776815</v>
+        <v>-0.00683690230438953</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0027555504635555</v>
+        <v>-0.00900020593202906</v>
       </c>
       <c r="U23" t="n">
-        <v>0.00459563276195633</v>
+        <v>0.00660323665805218</v>
       </c>
       <c r="V23" t="n">
-        <v>0.00431273860312739</v>
+        <v>-0.0100503771825339</v>
       </c>
       <c r="W23" t="n">
         <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.00794547334345473</v>
+        <v>-0.00556566940367339</v>
       </c>
     </row>
     <row r="24">
@@ -3920,70 +3920,70 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0000984614649846146</v>
+        <v>0.00851653464116535</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00463077769030778</v>
+        <v>0.001393400449934</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00309415779094158</v>
+        <v>0.00216324286563243</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00251957053319571</v>
+        <v>0.00301217145012171</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.00444375652443757</v>
+        <v>0.00508262553882625</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.00448600425286004</v>
+        <v>0.00436545723165457</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.0136680560086806</v>
+        <v>-0.00226286114262861</v>
       </c>
       <c r="I24" t="n">
-        <v>0.00134364187343642</v>
+        <v>-0.00585688069056881</v>
       </c>
       <c r="J24" t="n">
-        <v>0.00483748884037489</v>
+        <v>0.021845104382451</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.00123470362834704</v>
+        <v>-0.00166763938067639</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0184646229526462</v>
+        <v>0.00995518493155185</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.00930737387707374</v>
+        <v>0.00106698754666988</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.00681852328418523</v>
+        <v>-0.00906407911864079</v>
       </c>
       <c r="O24" t="n">
-        <v>0.00319601233996012</v>
+        <v>-0.00677622105176221</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.0048960097929601</v>
+        <v>0.00383897630638976</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.00540429371404294</v>
+        <v>-0.0123271188392712</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.00115483821554838</v>
+        <v>-0.00524348831243488</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.00213700403737004</v>
+        <v>-0.00387177126271771</v>
       </c>
       <c r="T24" t="n">
-        <v>0.0063368504433685</v>
+        <v>0.0234827308988273</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.00575323690553237</v>
+        <v>0.0046224100302241</v>
       </c>
       <c r="V24" t="n">
-        <v>0.00584283925042839</v>
+        <v>0.0236300477003005</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.00794547334345473</v>
+        <v>-0.00556566940367339</v>
       </c>
       <c r="X24" t="n">
         <v>1</v>
@@ -4091,76 +4091,76 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.843035932110359</v>
+        <v>0.847184394443844</v>
       </c>
       <c r="D2" t="n">
-        <v>0.834894761480948</v>
+        <v>0.839564806231648</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00199248933192489</v>
+        <v>-0.0011093596670936</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.00312106560721066</v>
+        <v>-0.00514018059940181</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0220310489683105</v>
+        <v>0.0258755520547555</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00874564081545641</v>
+        <v>0.0080663597966636</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0736318736323187</v>
+        <v>-0.0783042496710425</v>
       </c>
       <c r="J2" t="n">
-        <v>0.023697495320975</v>
+        <v>0.0126960366429604</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00683202797632028</v>
+        <v>0.0111060586590606</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.00338764790187648</v>
+        <v>-0.00688477546484775</v>
       </c>
       <c r="M2" t="n">
-        <v>0.000762062371620624</v>
+        <v>0.00747709639477096</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0421465750454657</v>
+        <v>-0.0443438303274383</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.0866913637349136</v>
+        <v>-0.0720739147807391</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.268546451373465</v>
+        <v>-0.262767385043674</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0795472774714728</v>
+        <v>-0.0737179839891798</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.00407971158479712</v>
+        <v>-0.00709901513899015</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0177552713735527</v>
+        <v>0.0131929651439297</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0723476680354767</v>
+        <v>0.0742768058867681</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0911128367631284</v>
+        <v>0.0999681393036814</v>
       </c>
       <c r="V2" t="n">
-        <v>0.168182615053826</v>
+        <v>0.169018560646186</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0880417916564179</v>
+        <v>0.0990064620420646</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00280448533604485</v>
+        <v>0.0244305539803055</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.0116756600607566</v>
+        <v>-0.00555210297152103</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.00152798609127986</v>
+        <v>-0.0079059303070593</v>
       </c>
     </row>
     <row r="3">
@@ -4168,7 +4168,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.843035932110359</v>
+        <v>0.847184394443844</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -4177,7 +4177,7 @@
         <v>0.989939172407392</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.00489721714897217</v>
+        <v>-0.0011813803798138</v>
       </c>
       <c r="F3" t="n">
         <v>0.00132024144120241</v>
@@ -4186,7 +4186,7 @@
         <v>0.00442242166422422</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00344460340644603</v>
+        <v>0.00233705680737057</v>
       </c>
       <c r="I3" t="n">
         <v>-0.0898821692268217</v>
@@ -4201,7 +4201,7 @@
         <v>0.00207712450477124</v>
       </c>
       <c r="M3" t="n">
-        <v>0.000522373397223734</v>
+        <v>0.00229868373498684</v>
       </c>
       <c r="N3" t="n">
         <v>-0.00283594166835942</v>
@@ -4234,13 +4234,13 @@
         <v>0.00276484848364848</v>
       </c>
       <c r="X3" t="n">
-        <v>0.00457665438976654</v>
+        <v>0.0140475699564757</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.0126207930662079</v>
+        <v>-0.0037636104736361</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.00637844336778443</v>
+        <v>-0.00974172867741729</v>
       </c>
     </row>
     <row r="4">
@@ -4248,7 +4248,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.834894761480948</v>
+        <v>0.839564806231648</v>
       </c>
       <c r="C4" t="n">
         <v>0.989939172407392</v>
@@ -4257,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.00546100344661003</v>
+        <v>-0.00302394291023943</v>
       </c>
       <c r="F4" t="n">
         <v>0.000287604074876041</v>
@@ -4266,7 +4266,7 @@
         <v>0.00395899805158998</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00518046353180463</v>
+        <v>0.000646053234460532</v>
       </c>
       <c r="I4" t="n">
         <v>-0.00225234233852342</v>
@@ -4281,7 +4281,7 @@
         <v>0.0022427297984273</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.0000555016685550167</v>
+        <v>0.0029991400979914</v>
       </c>
       <c r="N4" t="n">
         <v>-0.00329823172498232</v>
@@ -4314,13 +4314,13 @@
         <v>0.00315070425150704</v>
       </c>
       <c r="X4" t="n">
-        <v>0.00526949940469499</v>
+        <v>0.0137936094299361</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.014781702543817</v>
+        <v>-0.00258885615788856</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.00403596595635966</v>
+        <v>-0.00990448941904489</v>
       </c>
     </row>
     <row r="5">
@@ -4328,79 +4328,79 @@
         <v>24</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00199248933192489</v>
+        <v>-0.0011093596670936</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.00489721714897217</v>
+        <v>-0.0011813803798138</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.00546100344661003</v>
+        <v>-0.00302394291023943</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00394237086342371</v>
+        <v>0.0024290895722909</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.00409821486498215</v>
+        <v>-0.00739150620191506</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0017290102852901</v>
+        <v>-0.00842559261625593</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00400829874408299</v>
+        <v>-0.00800236200802362</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.00713431245534312</v>
+        <v>0.000746964451469644</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.00696359223363592</v>
+        <v>0.00289890228498902</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0158686830026868</v>
+        <v>-0.00290987693309877</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.000350822523508225</v>
+        <v>-0.017740503261405</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00138599823785998</v>
+        <v>0.00241684094416841</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.00606173133661731</v>
+        <v>-0.0029012703290127</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.00806384202863842</v>
+        <v>-0.00419483669394837</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.0109547452935475</v>
+        <v>-0.00999697485996975</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.0159705669397057</v>
+        <v>-0.00837487700374877</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0166281937422819</v>
+        <v>-0.00519022081590221</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.010772098583721</v>
+        <v>0.0068381499083815</v>
       </c>
       <c r="U5" t="n">
-        <v>0.000883469672834697</v>
+        <v>0.0133197333131973</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0166454800664548</v>
+        <v>0.00777605150976052</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0030445299304453</v>
+        <v>0.0131947717679477</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0128612468006125</v>
+        <v>-0.00409449544094495</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.00516327545163275</v>
+        <v>-0.00290940553709406</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.0196366750843667</v>
+        <v>-0.0137854397098544</v>
       </c>
     </row>
     <row r="6">
@@ -4408,7 +4408,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.00312106560721066</v>
+        <v>-0.00514018059940181</v>
       </c>
       <c r="C6" t="n">
         <v>0.00132024144120241</v>
@@ -4417,7 +4417,7 @@
         <v>0.000287604074876041</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00394237086342371</v>
+        <v>0.0024290895722909</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -4426,7 +4426,7 @@
         <v>0.00377375132573751</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00363305125233051</v>
+        <v>-0.00526817724468177</v>
       </c>
       <c r="I6" t="n">
         <v>-0.0132890941448909</v>
@@ -4441,7 +4441,7 @@
         <v>0.00323165579631656</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00712909924729099</v>
+        <v>-0.012309801879098</v>
       </c>
       <c r="N6" t="n">
         <v>0.0185860481578605</v>
@@ -4474,13 +4474,13 @@
         <v>-0.0110025326180253</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.0120848689568487</v>
+        <v>0.00373583204535832</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.000983265177832652</v>
+        <v>-0.00770446720104467</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.0000008564400085644</v>
+        <v>-0.00469536423495364</v>
       </c>
     </row>
     <row r="7">
@@ -4488,7 +4488,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0220310489683105</v>
+        <v>0.0258755520547555</v>
       </c>
       <c r="C7" t="n">
         <v>0.00442242166422422</v>
@@ -4497,7 +4497,7 @@
         <v>0.00395899805158998</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.00409821486498215</v>
+        <v>-0.00739150620191506</v>
       </c>
       <c r="F7" t="n">
         <v>0.00377375132573751</v>
@@ -4506,7 +4506,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00090537698105377</v>
+        <v>0.0137644207136442</v>
       </c>
       <c r="I7" t="n">
         <v>-0.00512657442326574</v>
@@ -4521,7 +4521,7 @@
         <v>0.00463225593432256</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00118607734786077</v>
+        <v>0.00403988758039888</v>
       </c>
       <c r="N7" t="n">
         <v>-0.0156230358242304</v>
@@ -4554,13 +4554,13 @@
         <v>0.00621556844615568</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0135391722873917</v>
+        <v>0.0145762139297621</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.00311958325919583</v>
+        <v>-0.00344265207442652</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.0131200264072003</v>
+        <v>-0.00523491210434912</v>
       </c>
     </row>
     <row r="8">
@@ -4568,79 +4568,79 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.00874564081545641</v>
+        <v>0.0080663597966636</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00344460340644603</v>
+        <v>0.00233705680737057</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00518046353180463</v>
+        <v>0.000646053234460532</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0017290102852901</v>
+        <v>-0.00842559261625593</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00363305125233051</v>
+        <v>-0.00526817724468177</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00090537698105377</v>
+        <v>0.0137644207136442</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0162376849743768</v>
+        <v>-0.0213100518091005</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.00986510395465104</v>
+        <v>-0.00957935313579353</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00978218712182187</v>
+        <v>-0.000591556769915568</v>
       </c>
       <c r="L8" t="n">
-        <v>0.00379207244592072</v>
+        <v>-0.00155356881953569</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.00417986582979866</v>
+        <v>-0.00458014128980141</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.0156425660284257</v>
+        <v>0.000626485686264857</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00297632586576326</v>
+        <v>-0.00900605556606055</v>
       </c>
       <c r="P8" t="n">
-        <v>0.00659425360194254</v>
+        <v>0.000521819165218192</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.00538101678581017</v>
+        <v>0.00420088751400887</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.00814063552540635</v>
+        <v>-0.000821949176219492</v>
       </c>
       <c r="S8" t="n">
-        <v>0.00976589774565898</v>
+        <v>0.00818360805383608</v>
       </c>
       <c r="T8" t="n">
-        <v>0.000979548837795488</v>
+        <v>-0.00534314298543143</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.00257699108576991</v>
+        <v>0.00462953408229534</v>
       </c>
       <c r="V8" t="n">
-        <v>0.025197699275977</v>
+        <v>0.0121662403096624</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.00259222509792225</v>
+        <v>0.00682643687626437</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0207882598358826</v>
+        <v>-0.00792807552728076</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.00168610838886108</v>
+        <v>0.00843089911230899</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.000389522727895227</v>
+        <v>0.00976767366167674</v>
       </c>
     </row>
     <row r="9">
@@ -4648,7 +4648,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0736318736323187</v>
+        <v>-0.0783042496710425</v>
       </c>
       <c r="C9" t="n">
         <v>-0.0898821692268217</v>
@@ -4657,7 +4657,7 @@
         <v>-0.00225234233852342</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00400829874408299</v>
+        <v>-0.00800236200802362</v>
       </c>
       <c r="F9" t="n">
         <v>-0.0132890941448909</v>
@@ -4666,7 +4666,7 @@
         <v>-0.00512657442326574</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0162376849743768</v>
+        <v>-0.0213100518091005</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -4681,7 +4681,7 @@
         <v>-0.00234215091542151</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.00588756213487562</v>
+        <v>0.00632719897527199</v>
       </c>
       <c r="N9" t="n">
         <v>-0.0187738714277387</v>
@@ -4714,13 +4714,13 @@
         <v>0.00779199466191995</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.00112081773520818</v>
+        <v>0.00932387072123871</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.00604674633646746</v>
+        <v>0.0103445822234458</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.00726523401665234</v>
+        <v>-0.0186867339908673</v>
       </c>
     </row>
     <row r="10">
@@ -4728,7 +4728,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.023697495320975</v>
+        <v>0.0126960366429604</v>
       </c>
       <c r="C10" t="n">
         <v>0.00689193543291935</v>
@@ -4737,7 +4737,7 @@
         <v>0.0069525800855258</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.00713431245534312</v>
+        <v>0.000746964451469644</v>
       </c>
       <c r="F10" t="n">
         <v>-0.00219257356592574</v>
@@ -4746,7 +4746,7 @@
         <v>-0.000712896163128962</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.00986510395465104</v>
+        <v>-0.00957935313579353</v>
       </c>
       <c r="I10" t="n">
         <v>0.0144601312206013</v>
@@ -4761,7 +4761,7 @@
         <v>0.0118076341540763</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0102592230425922</v>
+        <v>0.00167106714471067</v>
       </c>
       <c r="N10" t="n">
         <v>0.00551366404313664</v>
@@ -4794,13 +4794,13 @@
         <v>-0.00639444877594449</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.00408111299281113</v>
+        <v>0.00107193190671932</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.0142516560825166</v>
+        <v>0.000968697357686973</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.00983002877030029</v>
+        <v>-0.0138303633783036</v>
       </c>
     </row>
     <row r="11">
@@ -4808,7 +4808,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00683202797632028</v>
+        <v>0.0111060586590606</v>
       </c>
       <c r="C11" t="n">
         <v>-0.00399118613191186</v>
@@ -4817,7 +4817,7 @@
         <v>-0.0042644303706443</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.00696359223363592</v>
+        <v>0.00289890228498902</v>
       </c>
       <c r="F11" t="n">
         <v>0.000486025540860255</v>
@@ -4826,7 +4826,7 @@
         <v>0.00997771179977712</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00978218712182187</v>
+        <v>-0.000591556769915568</v>
       </c>
       <c r="I11" t="n">
         <v>-0.000103830589038306</v>
@@ -4841,7 +4841,7 @@
         <v>0.00827496559074965</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0127123737551237</v>
+        <v>0.000712018255120182</v>
       </c>
       <c r="N11" t="n">
         <v>-0.0180038882640389</v>
@@ -4874,13 +4874,13 @@
         <v>0.0156548265125483</v>
       </c>
       <c r="X11" t="n">
-        <v>0.00566997740069977</v>
+        <v>0.0123106226551062</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.00695855472958555</v>
+        <v>-0.00346667806666678</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.00437795142777951</v>
+        <v>0.0114795142867951</v>
       </c>
     </row>
     <row r="12">
@@ -4888,7 +4888,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.00338764790187648</v>
+        <v>-0.00688477546484775</v>
       </c>
       <c r="C12" t="n">
         <v>0.00207712450477124</v>
@@ -4897,7 +4897,7 @@
         <v>0.0022427297984273</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0158686830026868</v>
+        <v>-0.00290987693309877</v>
       </c>
       <c r="F12" t="n">
         <v>0.00323165579631656</v>
@@ -4906,7 +4906,7 @@
         <v>0.00463225593432256</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00379207244592072</v>
+        <v>-0.00155356881953569</v>
       </c>
       <c r="I12" t="n">
         <v>-0.00234215091542151</v>
@@ -4921,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0119242222192422</v>
+        <v>-0.0239834082118341</v>
       </c>
       <c r="N12" t="n">
         <v>0.0120680188566802</v>
@@ -4954,13 +4954,13 @@
         <v>-0.0064239704562397</v>
       </c>
       <c r="X12" t="n">
-        <v>0.00570644211306442</v>
+        <v>0.0205388184013882</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.00782826671428267</v>
+        <v>0.0115189212311892</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.0183691571196916</v>
+        <v>-0.00386331558263316</v>
       </c>
     </row>
     <row r="13">
@@ -4968,79 +4968,79 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.000762062371620624</v>
+        <v>0.00747709639477096</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000522373397223734</v>
+        <v>0.00229868373498684</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.0000555016685550167</v>
+        <v>0.0029991400979914</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.000350822523508225</v>
+        <v>-0.017740503261405</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00712909924729099</v>
+        <v>-0.012309801879098</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00118607734786077</v>
+        <v>0.00403988758039888</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.00417986582979866</v>
+        <v>-0.00458014128980141</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.00588756213487562</v>
+        <v>0.00632719897527199</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0102592230425922</v>
+        <v>0.00167106714471067</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0127123737551237</v>
+        <v>0.000712018255120182</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0119242222192422</v>
+        <v>-0.0239834082118341</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.00470557244305572</v>
+        <v>0.00879201198392012</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.00427403451074035</v>
+        <v>-0.00259805446998054</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.00708198501481985</v>
+        <v>0.0046138099301381</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.00785672160656722</v>
+        <v>-0.00525083641650836</v>
       </c>
       <c r="R13" t="n">
-        <v>0.00518589798385898</v>
+        <v>0.0000618037086180371</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0186243054182431</v>
+        <v>-0.0044331200843312</v>
       </c>
       <c r="T13" t="n">
-        <v>0.00624838213448382</v>
+        <v>0.00448528650885287</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.00190491225104912</v>
+        <v>0.0188968511369685</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.00216255749762558</v>
+        <v>0.00542742394227424</v>
       </c>
       <c r="W13" t="n">
-        <v>0.00056706103767061</v>
+        <v>0.019414402502144</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0000867547928675479</v>
+        <v>-0.00309044692290447</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.00071949601919496</v>
+        <v>-0.00925674299656743</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.00245498578854986</v>
+        <v>-0.00270380508303805</v>
       </c>
     </row>
     <row r="14">
@@ -5048,7 +5048,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.0421465750454657</v>
+        <v>-0.0443438303274383</v>
       </c>
       <c r="C14" t="n">
         <v>-0.00283594166835942</v>
@@ -5057,7 +5057,7 @@
         <v>-0.00329823172498232</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00138599823785998</v>
+        <v>0.00241684094416841</v>
       </c>
       <c r="F14" t="n">
         <v>0.0185860481578605</v>
@@ -5066,7 +5066,7 @@
         <v>-0.0156230358242304</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.0156425660284257</v>
+        <v>0.000626485686264857</v>
       </c>
       <c r="I14" t="n">
         <v>-0.0187738714277387</v>
@@ -5081,7 +5081,7 @@
         <v>0.0120680188566802</v>
       </c>
       <c r="M14" t="n">
-        <v>0.00470557244305572</v>
+        <v>0.00879201198392012</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
@@ -5114,13 +5114,13 @@
         <v>0.0127866373398664</v>
       </c>
       <c r="X14" t="n">
-        <v>0.00297764118577641</v>
+        <v>0.010126401965264</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.0128520865525209</v>
+        <v>-0.0192318153603182</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.00735559306955593</v>
+        <v>-0.00228943707489437</v>
       </c>
     </row>
     <row r="15">
@@ -5128,7 +5128,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0866913637349136</v>
+        <v>-0.0720739147807391</v>
       </c>
       <c r="C15" t="n">
         <v>0.0265110164171102</v>
@@ -5137,7 +5137,7 @@
         <v>0.0256856737968567</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.00606173133661731</v>
+        <v>-0.0029012703290127</v>
       </c>
       <c r="F15" t="n">
         <v>0.00301056094210561</v>
@@ -5146,7 +5146,7 @@
         <v>0.0069526802375268</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00297632586576326</v>
+        <v>-0.00900605556606055</v>
       </c>
       <c r="I15" t="n">
         <v>-0.00888294308882943</v>
@@ -5161,7 +5161,7 @@
         <v>-0.0111088571670886</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.00427403451074035</v>
+        <v>-0.00259805446998054</v>
       </c>
       <c r="N15" t="n">
         <v>0.0103682342596823</v>
@@ -5194,13 +5194,13 @@
         <v>0.00985071144250711</v>
       </c>
       <c r="X15" t="n">
-        <v>0.0102616485306165</v>
+        <v>0.00134925158549252</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.0134167815261678</v>
+        <v>-0.00728692714886927</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.00467875187878752</v>
+        <v>0.0208707181247072</v>
       </c>
     </row>
     <row r="16">
@@ -5208,7 +5208,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.268546451373465</v>
+        <v>-0.262767385043674</v>
       </c>
       <c r="C16" t="n">
         <v>-0.0100871673048717</v>
@@ -5217,7 +5217,7 @@
         <v>-0.0087938498319385</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.00806384202863842</v>
+        <v>-0.00419483669394837</v>
       </c>
       <c r="F16" t="n">
         <v>0.00504343088643431</v>
@@ -5226,7 +5226,7 @@
         <v>0.0114384911583849</v>
       </c>
       <c r="H16" t="n">
-        <v>0.00659425360194254</v>
+        <v>0.000521819165218192</v>
       </c>
       <c r="I16" t="n">
         <v>0.0107553064555531</v>
@@ -5241,7 +5241,7 @@
         <v>-0.00872702435127024</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.00708198501481985</v>
+        <v>0.0046138099301381</v>
       </c>
       <c r="N16" t="n">
         <v>0.0187724196197242</v>
@@ -5274,13 +5274,13 @@
         <v>-0.0131397052193971</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.00210457071304571</v>
+        <v>-0.00842774347227743</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.00786951579069516</v>
+        <v>-0.00554815371148154</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.0178231634742316</v>
+        <v>-0.00315806153558062</v>
       </c>
     </row>
     <row r="17">
@@ -5288,7 +5288,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0795472774714728</v>
+        <v>-0.0737179839891798</v>
       </c>
       <c r="C17" t="n">
         <v>-0.0940250314602503</v>
@@ -5297,7 +5297,7 @@
         <v>0.00740547475405475</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0109547452935475</v>
+        <v>-0.00999697485996975</v>
       </c>
       <c r="F17" t="n">
         <v>0.00878593065985931</v>
@@ -5306,7 +5306,7 @@
         <v>-0.00333407544934075</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.00538101678581017</v>
+        <v>0.00420088751400887</v>
       </c>
       <c r="I17" t="n">
         <v>-0.0100994497249945</v>
@@ -5321,7 +5321,7 @@
         <v>0.00247195586471956</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.00785672160656722</v>
+        <v>-0.00525083641650836</v>
       </c>
       <c r="N17" t="n">
         <v>0.0130384877623849</v>
@@ -5354,13 +5354,13 @@
         <v>-0.00906902340669023</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.00156555817565558</v>
+        <v>-0.0108530383325304</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.016414603892146</v>
+        <v>0.00151235769912358</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.0144842103128421</v>
+        <v>0.0091740097277401</v>
       </c>
     </row>
     <row r="18">
@@ -5368,7 +5368,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.00407971158479712</v>
+        <v>-0.00709901513899015</v>
       </c>
       <c r="C18" t="n">
         <v>-0.00503482247034823</v>
@@ -5377,7 +5377,7 @@
         <v>-0.00372264740522647</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0159705669397057</v>
+        <v>-0.00837487700374877</v>
       </c>
       <c r="F18" t="n">
         <v>-0.00441308225613082</v>
@@ -5386,7 +5386,7 @@
         <v>-0.00865207729452077</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.00814063552540635</v>
+        <v>-0.000821949176219492</v>
       </c>
       <c r="I18" t="n">
         <v>0.0132542618765426</v>
@@ -5401,7 +5401,7 @@
         <v>-0.0188829069928291</v>
       </c>
       <c r="M18" t="n">
-        <v>0.00518589798385898</v>
+        <v>0.0000618037086180371</v>
       </c>
       <c r="N18" t="n">
         <v>0.00918054679980547</v>
@@ -5434,13 +5434,13 @@
         <v>0.00422458897824589</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.0189596137055961</v>
+        <v>0.00975521073755211</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.00453936509739365</v>
+        <v>-0.0129387565653876</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.0375054926910549</v>
+        <v>0.00674848726348487</v>
       </c>
     </row>
     <row r="19">
@@ -5448,7 +5448,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0177552713735527</v>
+        <v>0.0131929651439297</v>
       </c>
       <c r="C19" t="n">
         <v>-0.00774021259740213</v>
@@ -5457,7 +5457,7 @@
         <v>0.00833952449939524</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0166281937422819</v>
+        <v>-0.00519022081590221</v>
       </c>
       <c r="F19" t="n">
         <v>-0.0172874571768746</v>
@@ -5466,7 +5466,7 @@
         <v>0.00726404953264049</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00976589774565898</v>
+        <v>0.00818360805383608</v>
       </c>
       <c r="I19" t="n">
         <v>-0.00140068383800684</v>
@@ -5481,7 +5481,7 @@
         <v>0.00332339313323393</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0186243054182431</v>
+        <v>-0.0044331200843312</v>
       </c>
       <c r="N19" t="n">
         <v>-0.00680111854401119</v>
@@ -5514,13 +5514,13 @@
         <v>-0.00791178623511786</v>
       </c>
       <c r="X19" t="n">
-        <v>0.0219608427996084</v>
+        <v>-0.00383316069833161</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.0013202904852029</v>
+        <v>0.00138591066185911</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.00102028151820282</v>
+        <v>0.00805397295253973</v>
       </c>
     </row>
     <row r="20">
@@ -5528,7 +5528,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0723476680354767</v>
+        <v>0.0742768058867681</v>
       </c>
       <c r="C20" t="n">
         <v>-0.00441511900415119</v>
@@ -5537,7 +5537,7 @@
         <v>-0.00420673887006739</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.010772098583721</v>
+        <v>0.0068381499083815</v>
       </c>
       <c r="F20" t="n">
         <v>0.0124227592602276</v>
@@ -5546,7 +5546,7 @@
         <v>0.0145624329376243</v>
       </c>
       <c r="H20" t="n">
-        <v>0.000979548837795488</v>
+        <v>-0.00534314298543143</v>
       </c>
       <c r="I20" t="n">
         <v>0.0173062186970622</v>
@@ -5561,7 +5561,7 @@
         <v>-0.0094365701983657</v>
       </c>
       <c r="M20" t="n">
-        <v>0.00624838213448382</v>
+        <v>0.00448528650885287</v>
       </c>
       <c r="N20" t="n">
         <v>0.000155432509554325</v>
@@ -5594,13 +5594,13 @@
         <v>-0.0192349416963494</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.0084344097003441</v>
+        <v>-0.0142078868740789</v>
       </c>
       <c r="Y20" t="n">
-        <v>-0.0109052486650525</v>
+        <v>0.00492246380522464</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.0301492360814924</v>
+        <v>-0.00291381929313819</v>
       </c>
     </row>
     <row r="21">
@@ -5608,7 +5608,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0911128367631284</v>
+        <v>0.0999681393036814</v>
       </c>
       <c r="C21" t="n">
         <v>0.00386877942268779</v>
@@ -5617,7 +5617,7 @@
         <v>0.00443807201638072</v>
       </c>
       <c r="E21" t="n">
-        <v>0.000883469672834697</v>
+        <v>0.0133197333131973</v>
       </c>
       <c r="F21" t="n">
         <v>-0.0103999515319995</v>
@@ -5626,7 +5626,7 @@
         <v>0.00580477249004773</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.00257699108576991</v>
+        <v>0.00462953408229534</v>
       </c>
       <c r="I21" t="n">
         <v>0.0106490700944907</v>
@@ -5641,7 +5641,7 @@
         <v>-0.00383067391430674</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.00190491225104912</v>
+        <v>0.0188968511369685</v>
       </c>
       <c r="N21" t="n">
         <v>0.0143429626674296</v>
@@ -5674,13 +5674,13 @@
         <v>0.979642923868429</v>
       </c>
       <c r="X21" t="n">
-        <v>0.00261667710216677</v>
+        <v>0.00820346914603469</v>
       </c>
       <c r="Y21" t="n">
-        <v>-0.00572202555322026</v>
+        <v>-0.00556160191961602</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.00229943131099431</v>
+        <v>0.00769258441692584</v>
       </c>
     </row>
     <row r="22">
@@ -5688,7 +5688,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.168182615053826</v>
+        <v>0.169018560646186</v>
       </c>
       <c r="C22" t="n">
         <v>0.00773717866137179</v>
@@ -5697,7 +5697,7 @@
         <v>0.00794419596744196</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0166454800664548</v>
+        <v>0.00777605150976052</v>
       </c>
       <c r="F22" t="n">
         <v>0.000304618299046183</v>
@@ -5706,7 +5706,7 @@
         <v>0.00325437741254377</v>
       </c>
       <c r="H22" t="n">
-        <v>0.025197699275977</v>
+        <v>0.0121662403096624</v>
       </c>
       <c r="I22" t="n">
         <v>-0.00646246456062465</v>
@@ -5721,7 +5721,7 @@
         <v>-0.00182737885827379</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.00216255749762558</v>
+        <v>0.00542742394227424</v>
       </c>
       <c r="N22" t="n">
         <v>0.0206476382904764</v>
@@ -5754,13 +5754,13 @@
         <v>-0.00882576461225765</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.00395760134757601</v>
+        <v>0.0165583864895839</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.0071205902032059</v>
+        <v>-0.0075293102912931</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.0161416489494165</v>
+        <v>0.0061571605215716</v>
       </c>
     </row>
     <row r="23">
@@ -5768,7 +5768,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0880417916564179</v>
+        <v>0.0990064620420646</v>
       </c>
       <c r="C23" t="n">
         <v>0.00276484848364848</v>
@@ -5777,7 +5777,7 @@
         <v>0.00315070425150704</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0030445299304453</v>
+        <v>0.0131947717679477</v>
       </c>
       <c r="F23" t="n">
         <v>-0.0110025326180253</v>
@@ -5786,7 +5786,7 @@
         <v>0.00621556844615568</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.00259222509792225</v>
+        <v>0.00682643687626437</v>
       </c>
       <c r="I23" t="n">
         <v>0.00779199466191995</v>
@@ -5801,7 +5801,7 @@
         <v>-0.0064239704562397</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00056706103767061</v>
+        <v>0.019414402502144</v>
       </c>
       <c r="N23" t="n">
         <v>0.0127866373398664</v>
@@ -5834,13 +5834,13 @@
         <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>0.00300485261404853</v>
+        <v>0.00809570370895704</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.00329874516898745</v>
+        <v>-0.00530687304506873</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.00469975701499757</v>
+        <v>0.00977338744973387</v>
       </c>
     </row>
     <row r="24">
@@ -5848,79 +5848,79 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.00280448533604485</v>
+        <v>0.0244305539803055</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00457665438976654</v>
+        <v>0.0140475699564757</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00526949940469499</v>
+        <v>0.0137936094299361</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0128612468006125</v>
+        <v>-0.00409449544094495</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0120848689568487</v>
+        <v>0.00373583204535832</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0135391722873917</v>
+        <v>0.0145762139297621</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0207882598358826</v>
+        <v>-0.00792807552728076</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.00112081773520818</v>
+        <v>0.00932387072123871</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.00408111299281113</v>
+        <v>0.00107193190671932</v>
       </c>
       <c r="K24" t="n">
-        <v>0.00566997740069977</v>
+        <v>0.0123106226551062</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00570644211306442</v>
+        <v>0.0205388184013882</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0000867547928675479</v>
+        <v>-0.00309044692290447</v>
       </c>
       <c r="N24" t="n">
-        <v>0.00297764118577641</v>
+        <v>0.010126401965264</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0102616485306165</v>
+        <v>0.00134925158549252</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.00210457071304571</v>
+        <v>-0.00842774347227743</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.00156555817565558</v>
+        <v>-0.0108530383325304</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.0189596137055961</v>
+        <v>0.00975521073755211</v>
       </c>
       <c r="S24" t="n">
-        <v>0.0219608427996084</v>
+        <v>-0.00383316069833161</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.0084344097003441</v>
+        <v>-0.0142078868740789</v>
       </c>
       <c r="U24" t="n">
-        <v>0.00261667710216677</v>
+        <v>0.00820346914603469</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.00395760134757601</v>
+        <v>0.0165583864895839</v>
       </c>
       <c r="W24" t="n">
-        <v>0.00300485261404853</v>
+        <v>0.00809570370895704</v>
       </c>
       <c r="X24" t="n">
         <v>1</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.0171326282553263</v>
+        <v>-0.00311175948711759</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.00682638198826382</v>
+        <v>0.00916538826765388</v>
       </c>
     </row>
     <row r="25">
@@ -5928,79 +5928,79 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.0116756600607566</v>
+        <v>-0.00555210297152103</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.0126207930662079</v>
+        <v>-0.0037636104736361</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.014781702543817</v>
+        <v>-0.00258885615788856</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.00516327545163275</v>
+        <v>-0.00290940553709406</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.000983265177832652</v>
+        <v>-0.00770446720104467</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00311958325919583</v>
+        <v>-0.00344265207442652</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.00168610838886108</v>
+        <v>0.00843089911230899</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.00604674633646746</v>
+        <v>0.0103445822234458</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.0142516560825166</v>
+        <v>0.000968697357686973</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.00695855472958555</v>
+        <v>-0.00346667806666678</v>
       </c>
       <c r="L25" t="n">
-        <v>0.00782826671428267</v>
+        <v>0.0115189212311892</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.00071949601919496</v>
+        <v>-0.00925674299656743</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.0128520865525209</v>
+        <v>-0.0192318153603182</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.0134167815261678</v>
+        <v>-0.00728692714886927</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.00786951579069516</v>
+        <v>-0.00554815371148154</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.016414603892146</v>
+        <v>0.00151235769912358</v>
       </c>
       <c r="R25" t="n">
-        <v>0.00453936509739365</v>
+        <v>-0.0129387565653876</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.0013202904852029</v>
+        <v>0.00138591066185911</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.0109052486650525</v>
+        <v>0.00492246380522464</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.00572202555322026</v>
+        <v>-0.00556160191961602</v>
       </c>
       <c r="V25" t="n">
-        <v>-0.0071205902032059</v>
+        <v>-0.0075293102912931</v>
       </c>
       <c r="W25" t="n">
-        <v>-0.00329874516898745</v>
+        <v>-0.00530687304506873</v>
       </c>
       <c r="X25" t="n">
-        <v>0.0171326282553263</v>
+        <v>-0.00311175948711759</v>
       </c>
       <c r="Y25" t="n">
         <v>1</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.00626290494262905</v>
+        <v>-0.00139024408990244</v>
       </c>
     </row>
     <row r="26">
@@ -6008,76 +6008,76 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.00152798609127986</v>
+        <v>-0.0079059303070593</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00637844336778443</v>
+        <v>-0.00974172867741729</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00403596595635966</v>
+        <v>-0.00990448941904489</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.0196366750843667</v>
+        <v>-0.0137854397098544</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0000008564400085644</v>
+        <v>-0.00469536423495364</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.0131200264072003</v>
+        <v>-0.00523491210434912</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.000389522727895227</v>
+        <v>0.00976767366167674</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.00726523401665234</v>
+        <v>-0.0186867339908673</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.00983002877030029</v>
+        <v>-0.0138303633783036</v>
       </c>
       <c r="K26" t="n">
-        <v>0.00437795142777951</v>
+        <v>0.0114795142867951</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0183691571196916</v>
+        <v>-0.00386331558263316</v>
       </c>
       <c r="M26" t="n">
-        <v>0.00245498578854986</v>
+        <v>-0.00270380508303805</v>
       </c>
       <c r="N26" t="n">
-        <v>0.00735559306955593</v>
+        <v>-0.00228943707489437</v>
       </c>
       <c r="O26" t="n">
-        <v>0.00467875187878752</v>
+        <v>0.0208707181247072</v>
       </c>
       <c r="P26" t="n">
-        <v>0.0178231634742316</v>
+        <v>-0.00315806153558062</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.0144842103128421</v>
+        <v>0.0091740097277401</v>
       </c>
       <c r="R26" t="n">
-        <v>0.0375054926910549</v>
+        <v>0.00674848726348487</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.00102028151820282</v>
+        <v>0.00805397295253973</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0301492360814924</v>
+        <v>-0.00291381929313819</v>
       </c>
       <c r="U26" t="n">
-        <v>0.00229943131099431</v>
+        <v>0.00769258441692584</v>
       </c>
       <c r="V26" t="n">
-        <v>-0.0161416489494165</v>
+        <v>0.0061571605215716</v>
       </c>
       <c r="W26" t="n">
-        <v>0.00469975701499757</v>
+        <v>0.00977338744973387</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.00682638198826382</v>
+        <v>0.00916538826765388</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.00626290494262905</v>
+        <v>-0.00139024408990244</v>
       </c>
       <c r="Z26" t="n">
         <v>1</v>
